--- a/po_analysis_by_asin/B09JZGTYXJ_po_data.xlsx
+++ b/po_analysis_by_asin/B09JZGTYXJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -719,6 +720,467 @@
       </c>
       <c r="B9" t="n">
         <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>58</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-17.27986140535263</v>
+      </c>
+      <c r="D2" t="n">
+        <v>129.5463241526176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-18.53725535265832</v>
+      </c>
+      <c r="D3" t="n">
+        <v>135.1481297297163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-12.51941801081181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.1746777001956</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-13.06006631920632</v>
+      </c>
+      <c r="D5" t="n">
+        <v>139.4423921446176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>63</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-15.02995871788602</v>
+      </c>
+      <c r="D6" t="n">
+        <v>140.7876882701573</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-9.525771581496203</v>
+      </c>
+      <c r="D7" t="n">
+        <v>141.9402505129319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-20.58060758835707</v>
+      </c>
+      <c r="D8" t="n">
+        <v>136.5569122175034</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>67</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9.918800318881321</v>
+      </c>
+      <c r="D9" t="n">
+        <v>141.9489912900616</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.130333427034417</v>
+      </c>
+      <c r="D10" t="n">
+        <v>141.2204776400593</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.445173897806443</v>
+      </c>
+      <c r="D11" t="n">
+        <v>138.7538575275177</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>71</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.8964615891345376</v>
+      </c>
+      <c r="D12" t="n">
+        <v>143.779550791328</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>72</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.053883110882889</v>
+      </c>
+      <c r="D13" t="n">
+        <v>145.1522163478319</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.4630434193252077</v>
+      </c>
+      <c r="D14" t="n">
+        <v>146.6939607897322</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>73</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.191321690850092</v>
+      </c>
+      <c r="D15" t="n">
+        <v>148.1287272311903</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>74</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.208549685024629</v>
+      </c>
+      <c r="D16" t="n">
+        <v>149.6735081289869</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.132702505198296</v>
+      </c>
+      <c r="D17" t="n">
+        <v>147.9748934388483</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>77</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.882042156734338</v>
+      </c>
+      <c r="D18" t="n">
+        <v>148.7528971654177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.162868622949189</v>
+      </c>
+      <c r="D19" t="n">
+        <v>153.9178869861332</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>80</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.616946573496167</v>
+      </c>
+      <c r="D20" t="n">
+        <v>153.0755101902198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10.22993384294525</v>
+      </c>
+      <c r="D21" t="n">
+        <v>151.8448583241334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>82</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.395028541329515</v>
+      </c>
+      <c r="D22" t="n">
+        <v>155.30768674424</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>82</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.02965181845889</v>
+      </c>
+      <c r="D23" t="n">
+        <v>156.7438811241125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>83</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.833892154798443</v>
+      </c>
+      <c r="D24" t="n">
+        <v>161.7323726180264</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>84</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13.24153561553437</v>
+      </c>
+      <c r="D25" t="n">
+        <v>157.7078792674662</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>85</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.708670749312129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>161.0206619994737</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>86</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11.1832681130144</v>
+      </c>
+      <c r="D27" t="n">
+        <v>160.187551526242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>87</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.616638319218762</v>
+      </c>
+      <c r="D28" t="n">
+        <v>156.3395773423696</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>87</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15.30972535552784</v>
+      </c>
+      <c r="D29" t="n">
+        <v>161.3696660082081</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>88</v>
+      </c>
+      <c r="C30" t="n">
+        <v>19.30155027126166</v>
+      </c>
+      <c r="D30" t="n">
+        <v>157.7967851747362</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>89</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.91058050758159</v>
+      </c>
+      <c r="D31" t="n">
+        <v>167.4970339714346</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09JZGTYXJ_po_data.xlsx
+++ b/po_analysis_by_asin/B09JZGTYXJ_po_data.xlsx
@@ -733,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,16 +752,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -770,12 +760,6 @@
       <c r="B2" t="n">
         <v>58</v>
       </c>
-      <c r="C2" t="n">
-        <v>-17.27986140535263</v>
-      </c>
-      <c r="D2" t="n">
-        <v>129.5463241526176</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -784,12 +768,6 @@
       <c r="B3" t="n">
         <v>60</v>
       </c>
-      <c r="C3" t="n">
-        <v>-18.53725535265832</v>
-      </c>
-      <c r="D3" t="n">
-        <v>135.1481297297163</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -798,12 +776,6 @@
       <c r="B4" t="n">
         <v>62</v>
       </c>
-      <c r="C4" t="n">
-        <v>-12.51941801081181</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.1746777001956</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -812,12 +784,6 @@
       <c r="B5" t="n">
         <v>62</v>
       </c>
-      <c r="C5" t="n">
-        <v>-13.06006631920632</v>
-      </c>
-      <c r="D5" t="n">
-        <v>139.4423921446176</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -826,12 +792,6 @@
       <c r="B6" t="n">
         <v>63</v>
       </c>
-      <c r="C6" t="n">
-        <v>-15.02995871788602</v>
-      </c>
-      <c r="D6" t="n">
-        <v>140.7876882701573</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -840,12 +800,6 @@
       <c r="B7" t="n">
         <v>64</v>
       </c>
-      <c r="C7" t="n">
-        <v>-9.525771581496203</v>
-      </c>
-      <c r="D7" t="n">
-        <v>141.9402505129319</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -854,12 +808,6 @@
       <c r="B8" t="n">
         <v>65</v>
       </c>
-      <c r="C8" t="n">
-        <v>-20.58060758835707</v>
-      </c>
-      <c r="D8" t="n">
-        <v>136.5569122175034</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -868,12 +816,6 @@
       <c r="B9" t="n">
         <v>67</v>
       </c>
-      <c r="C9" t="n">
-        <v>-9.918800318881321</v>
-      </c>
-      <c r="D9" t="n">
-        <v>141.9489912900616</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -882,12 +824,6 @@
       <c r="B10" t="n">
         <v>68</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.130333427034417</v>
-      </c>
-      <c r="D10" t="n">
-        <v>141.2204776400593</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -896,12 +832,6 @@
       <c r="B11" t="n">
         <v>70</v>
       </c>
-      <c r="C11" t="n">
-        <v>-3.445173897806443</v>
-      </c>
-      <c r="D11" t="n">
-        <v>138.7538575275177</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -910,12 +840,6 @@
       <c r="B12" t="n">
         <v>71</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.8964615891345376</v>
-      </c>
-      <c r="D12" t="n">
-        <v>143.779550791328</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -924,12 +848,6 @@
       <c r="B13" t="n">
         <v>72</v>
       </c>
-      <c r="C13" t="n">
-        <v>-3.053883110882889</v>
-      </c>
-      <c r="D13" t="n">
-        <v>145.1522163478319</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -938,12 +856,6 @@
       <c r="B14" t="n">
         <v>72</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.4630434193252077</v>
-      </c>
-      <c r="D14" t="n">
-        <v>146.6939607897322</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -952,12 +864,6 @@
       <c r="B15" t="n">
         <v>73</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.191321690850092</v>
-      </c>
-      <c r="D15" t="n">
-        <v>148.1287272311903</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -966,12 +872,6 @@
       <c r="B16" t="n">
         <v>74</v>
       </c>
-      <c r="C16" t="n">
-        <v>4.208549685024629</v>
-      </c>
-      <c r="D16" t="n">
-        <v>149.6735081289869</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -980,12 +880,6 @@
       <c r="B17" t="n">
         <v>75</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.132702505198296</v>
-      </c>
-      <c r="D17" t="n">
-        <v>147.9748934388483</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -994,12 +888,6 @@
       <c r="B18" t="n">
         <v>77</v>
       </c>
-      <c r="C18" t="n">
-        <v>4.882042156734338</v>
-      </c>
-      <c r="D18" t="n">
-        <v>148.7528971654177</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1008,12 +896,6 @@
       <c r="B19" t="n">
         <v>79</v>
       </c>
-      <c r="C19" t="n">
-        <v>2.162868622949189</v>
-      </c>
-      <c r="D19" t="n">
-        <v>153.9178869861332</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1022,12 +904,6 @@
       <c r="B20" t="n">
         <v>80</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.616946573496167</v>
-      </c>
-      <c r="D20" t="n">
-        <v>153.0755101902198</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1036,12 +912,6 @@
       <c r="B21" t="n">
         <v>81</v>
       </c>
-      <c r="C21" t="n">
-        <v>10.22993384294525</v>
-      </c>
-      <c r="D21" t="n">
-        <v>151.8448583241334</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1050,12 +920,6 @@
       <c r="B22" t="n">
         <v>82</v>
       </c>
-      <c r="C22" t="n">
-        <v>6.395028541329515</v>
-      </c>
-      <c r="D22" t="n">
-        <v>155.30768674424</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1064,12 +928,6 @@
       <c r="B23" t="n">
         <v>82</v>
       </c>
-      <c r="C23" t="n">
-        <v>11.02965181845889</v>
-      </c>
-      <c r="D23" t="n">
-        <v>156.7438811241125</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1078,12 +936,6 @@
       <c r="B24" t="n">
         <v>83</v>
       </c>
-      <c r="C24" t="n">
-        <v>9.833892154798443</v>
-      </c>
-      <c r="D24" t="n">
-        <v>161.7323726180264</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1092,12 +944,6 @@
       <c r="B25" t="n">
         <v>84</v>
       </c>
-      <c r="C25" t="n">
-        <v>13.24153561553437</v>
-      </c>
-      <c r="D25" t="n">
-        <v>157.7078792674662</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1106,12 +952,6 @@
       <c r="B26" t="n">
         <v>85</v>
       </c>
-      <c r="C26" t="n">
-        <v>5.708670749312129</v>
-      </c>
-      <c r="D26" t="n">
-        <v>161.0206619994737</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1120,12 +960,6 @@
       <c r="B27" t="n">
         <v>86</v>
       </c>
-      <c r="C27" t="n">
-        <v>11.1832681130144</v>
-      </c>
-      <c r="D27" t="n">
-        <v>160.187551526242</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1134,12 +968,6 @@
       <c r="B28" t="n">
         <v>87</v>
       </c>
-      <c r="C28" t="n">
-        <v>8.616638319218762</v>
-      </c>
-      <c r="D28" t="n">
-        <v>156.3395773423696</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1148,12 +976,6 @@
       <c r="B29" t="n">
         <v>87</v>
       </c>
-      <c r="C29" t="n">
-        <v>15.30972535552784</v>
-      </c>
-      <c r="D29" t="n">
-        <v>161.3696660082081</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1162,12 +984,6 @@
       <c r="B30" t="n">
         <v>88</v>
       </c>
-      <c r="C30" t="n">
-        <v>19.30155027126166</v>
-      </c>
-      <c r="D30" t="n">
-        <v>157.7967851747362</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1175,12 +991,6 @@
       </c>
       <c r="B31" t="n">
         <v>89</v>
-      </c>
-      <c r="C31" t="n">
-        <v>14.91058050758159</v>
-      </c>
-      <c r="D31" t="n">
-        <v>167.4970339714346</v>
       </c>
     </row>
   </sheetData>
